--- a/璀璨澜庭/装修预算表-20230527.xlsx
+++ b/璀璨澜庭/装修预算表-20230527.xlsx
@@ -681,6 +681,48 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,15 +732,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,39 +739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F16" sqref="F16:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1134,7 +1134,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>110</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1198,15 +1198,15 @@
       <c r="D8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="17">
         <v>28005</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1216,11 +1216,11 @@
       <c r="D9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1230,11 +1230,11 @@
       <c r="D10" s="3">
         <v>6000</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1244,11 +1244,11 @@
       <c r="D11" s="3">
         <v>6000</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
@@ -1258,11 +1258,11 @@
       <c r="D12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1272,11 +1272,11 @@
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>94</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
         <v>88</v>
       </c>
@@ -1304,15 +1304,15 @@
       <c r="D15" s="14">
         <v>4000</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="15">
         <v>5200</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1324,15 +1324,15 @@
       <c r="D16" s="13">
         <v>3000</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="26">
         <v>17170</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="25" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="13" t="s">
         <v>69</v>
       </c>
@@ -1342,11 +1342,11 @@
       <c r="D17" s="13">
         <v>2500</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="13" t="s">
         <v>14</v>
       </c>
@@ -1356,11 +1356,11 @@
       <c r="D18" s="13">
         <v>2500</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="13" t="s">
         <v>18</v>
       </c>
@@ -1370,11 +1370,11 @@
       <c r="D19" s="13">
         <v>1500</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
@@ -1384,11 +1384,11 @@
       <c r="D20" s="13">
         <v>1000</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
@@ -1398,11 +1398,11 @@
       <c r="D21" s="13">
         <v>1000</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5" t="s">
         <v>102</v>
       </c>
@@ -1450,11 +1450,13 @@
       <c r="D24" s="5">
         <v>2500</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7">
+        <v>2500</v>
+      </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1474,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1484,13 +1486,13 @@
       <c r="D26" s="5">
         <v>350</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="32">
         <v>1800</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1500,11 +1502,11 @@
       <c r="D27" s="5">
         <v>250</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
@@ -1514,11 +1516,11 @@
       <c r="D28" s="5">
         <v>250</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1528,11 +1530,11 @@
       <c r="D29" s="5">
         <v>500</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
         <v>107</v>
       </c>
@@ -1542,11 +1544,11 @@
       <c r="D30" s="5">
         <v>250</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="5" t="s">
         <v>108</v>
       </c>
@@ -1556,11 +1558,11 @@
       <c r="D31" s="5">
         <v>100</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1572,15 +1574,15 @@
       <c r="D32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="17">
         <v>3050</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
@@ -1590,11 +1592,11 @@
       <c r="D33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
@@ -1604,11 +1606,11 @@
       <c r="D34" s="3">
         <v>500</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
@@ -1618,11 +1620,11 @@
       <c r="D35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
@@ -1632,11 +1634,11 @@
       <c r="D36" s="3">
         <v>1000</v>
       </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="27"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="3" t="s">
         <v>78</v>
       </c>
@@ -1646,11 +1648,11 @@
       <c r="D37" s="3">
         <v>600</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1668,7 +1670,7 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="14" t="s">
         <v>100</v>
       </c>
@@ -1686,7 +1688,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="5" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1704,7 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="5" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1720,7 @@
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
@@ -1736,7 +1738,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
@@ -1772,7 +1774,7 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1784,15 +1786,15 @@
       <c r="D45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="23">
         <v>16500</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="3" t="s">
         <v>59</v>
       </c>
@@ -1802,11 +1804,11 @@
       <c r="D46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
@@ -1816,11 +1818,11 @@
       <c r="D47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
@@ -1830,11 +1832,11 @@
       <c r="D48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="24"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -1844,11 +1846,11 @@
       <c r="D49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="14" t="s">
         <v>63</v>
       </c>
@@ -1858,11 +1860,11 @@
       <c r="D50" s="14">
         <v>2000</v>
       </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
@@ -1872,11 +1874,11 @@
       <c r="D51" s="3">
         <v>1500</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -1896,7 +1898,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="6" t="s">
         <v>90</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="6" t="s">
         <v>103</v>
       </c>
@@ -1928,7 +1930,7 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1938,6 +1940,10 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <mergeCells count="20">
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="F45:F51"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A38:A43"/>
@@ -1954,10 +1960,6 @@
     <mergeCell ref="F32:F37"/>
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="F16:F21"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E26:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
